--- a/AssessmentSchedule_2425.xlsx
+++ b/AssessmentSchedule_2425.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cf-my.sharepoint.com/personal/northce_cardiff_ac_uk/Documents/Documents/Cardiff/DUGS/Assessments/Schedule Modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2119" documentId="8_{F6E35C1D-54A9-4F6E-BB8B-E8E1539C4BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AF75658-3ACA-4DD4-A8D4-B13DC2F3ED67}"/>
+  <xr:revisionPtr revIDLastSave="2123" documentId="8_{F6E35C1D-54A9-4F6E-BB8B-E8E1539C4BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{868C87DD-15C7-4415-A66B-9579C8864427}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="26116" windowHeight="15675" activeTab="2" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Assessments" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="33" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -8640,7 +8640,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F344565-A902-475D-ACD8-7DA2FB255CBD}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F344565-A902-475D-ACD8-7DA2FB255CBD}" name="PivotTable1" cacheId="33" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:B70" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="34">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -9550,26 +9550,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66039B40-29AD-4D93-B125-EAF72A7B3996}">
   <dimension ref="A1:AJ144"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="H74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K131" sqref="K131"/>
+      <selection pane="bottomRight" activeCell="U102" sqref="U102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.9296875" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.9296875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="21.73046875" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.73046875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="10.73046875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.73046875" style="10" customWidth="1"/>
-    <col min="11" max="19" width="16.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="17.265625" style="14" bestFit="1" customWidth="1"/>
-    <col min="23" max="34" width="9.06640625" style="16"/>
+    <col min="1" max="1" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10" style="10" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" style="10" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.7109375" style="10" customWidth="1"/>
+    <col min="11" max="19" width="16.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="17.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="23" max="34" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -12059,7 +12059,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:36" ht="14.55" customHeight="1">
+    <row r="34" spans="1:36" ht="14.65" customHeight="1">
       <c r="A34" s="4" t="s">
         <v>49</v>
       </c>
@@ -13455,7 +13455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:36" ht="14.55" customHeight="1">
+    <row r="53" spans="1:36" ht="14.65" customHeight="1">
       <c r="A53" s="3" t="s">
         <v>99</v>
       </c>
@@ -13591,7 +13591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:36" ht="14.55" customHeight="1">
+    <row r="55" spans="1:36" ht="14.65" customHeight="1">
       <c r="A55" s="3" t="s">
         <v>103</v>
       </c>
@@ -15445,7 +15445,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:36">
+    <row r="80" spans="1:36" ht="28.5">
       <c r="A80" s="8" t="s">
         <v>23</v>
       </c>
@@ -17082,49 +17082,52 @@
       </c>
       <c r="I102" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>0.44444444444444448</v>
+        <v>0.39999999999999991</v>
       </c>
       <c r="J102" s="11">
         <v>0.5</v>
       </c>
-      <c r="K102" s="18"/>
-      <c r="L102" s="18"/>
+      <c r="K102" s="18">
+        <f>0.1/10</f>
+        <v>0.01</v>
+      </c>
+      <c r="L102" s="18">
+        <f t="shared" ref="L102:T102" si="7">0.1/10</f>
+        <v>0.01</v>
+      </c>
       <c r="M102" s="18">
-        <f t="shared" ref="M102:U102" si="7">0.1/9</f>
-        <v>1.1111111111111112E-2</v>
+        <f t="shared" si="7"/>
+        <v>0.01</v>
       </c>
       <c r="N102" s="18">
         <f t="shared" si="7"/>
-        <v>1.1111111111111112E-2</v>
+        <v>0.01</v>
       </c>
       <c r="O102" s="18">
         <f t="shared" si="7"/>
-        <v>1.1111111111111112E-2</v>
+        <v>0.01</v>
       </c>
       <c r="P102" s="18">
         <f t="shared" si="7"/>
-        <v>1.1111111111111112E-2</v>
+        <v>0.01</v>
       </c>
       <c r="Q102" s="18">
         <f t="shared" si="7"/>
-        <v>1.1111111111111112E-2</v>
+        <v>0.01</v>
       </c>
       <c r="R102" s="18">
         <f t="shared" si="7"/>
-        <v>1.1111111111111112E-2</v>
+        <v>0.01</v>
       </c>
       <c r="S102" s="18">
         <f t="shared" si="7"/>
-        <v>1.1111111111111112E-2</v>
+        <v>0.01</v>
       </c>
       <c r="T102" s="18">
         <f t="shared" si="7"/>
-        <v>1.1111111111111112E-2</v>
-      </c>
-      <c r="U102" s="18">
-        <f t="shared" si="7"/>
-        <v>1.1111111111111112E-2</v>
-      </c>
+        <v>0.01</v>
+      </c>
+      <c r="U102" s="18"/>
       <c r="V102" s="19"/>
       <c r="W102" s="20"/>
       <c r="X102" s="20"/>
@@ -17140,11 +17143,11 @@
       <c r="AH102" s="20"/>
       <c r="AI102" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.1</v>
+        <v>9.9999999999999992E-2</v>
       </c>
       <c r="AJ102" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>4.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:36">
@@ -20236,17 +20239,17 @@
       <selection pane="bottomRight" activeCell="AF3" sqref="AF3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.9296875" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.9296875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="10.73046875" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.73046875" style="10" customWidth="1"/>
-    <col min="8" max="16" width="16.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="17.265625" style="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="31" width="8.73046875" style="16"/>
+    <col min="1" max="1" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10" style="10" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="10" customWidth="1"/>
+    <col min="8" max="16" width="16.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="17.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="31" width="8.7109375" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -23576,7 +23579,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:32" ht="14.55" customHeight="1">
+    <row r="35" spans="1:32" ht="14.65" customHeight="1">
       <c r="A35" s="4" t="s">
         <v>20</v>
       </c>
@@ -23772,7 +23775,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:32">
+    <row r="37" spans="1:32" ht="28.5">
       <c r="A37" s="8" t="s">
         <v>23</v>
       </c>
@@ -25441,7 +25444,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="1:32" ht="14.55" customHeight="1">
+    <row r="54" spans="1:32" ht="14.65" customHeight="1">
       <c r="A54" s="4" t="s">
         <v>77</v>
       </c>
@@ -25637,7 +25640,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:32" ht="14.55" customHeight="1">
+    <row r="56" spans="1:32" ht="14.65" customHeight="1">
       <c r="A56" s="3" t="s">
         <v>207</v>
       </c>
@@ -27387,19 +27390,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D548CE7-BEAC-43FA-847F-FDE82E3A5926}">
   <dimension ref="A1:Q132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.796875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.73046875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.9296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -28647,7 +28650,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" ht="28.5">
       <c r="A28" s="4" t="s">
         <v>7</v>
       </c>
@@ -28696,7 +28699,7 @@
         <v>30.000000000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" ht="28.5">
       <c r="A29" s="4" t="s">
         <v>9</v>
       </c>
@@ -28745,7 +28748,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" ht="28.5">
       <c r="A30" s="4" t="s">
         <v>11</v>
       </c>
@@ -28839,7 +28842,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" ht="28.5">
       <c r="A32" s="4" t="s">
         <v>16</v>
       </c>
@@ -28888,7 +28891,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" ht="28.5">
       <c r="A33" s="4" t="s">
         <v>17</v>
       </c>
@@ -28937,7 +28940,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" ht="28.5">
       <c r="A34" s="4" t="s">
         <v>18</v>
       </c>
@@ -28984,7 +28987,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" ht="28.5">
       <c r="A35" s="4" t="s">
         <v>20</v>
       </c>
@@ -29035,7 +29038,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" ht="28.5">
       <c r="A36" s="4" t="s">
         <v>26</v>
       </c>
@@ -29086,7 +29089,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" ht="28.5">
       <c r="A37" s="8" t="s">
         <v>23</v>
       </c>
@@ -29607,7 +29610,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" ht="28.5">
       <c r="A48" s="4" t="s">
         <v>66</v>
       </c>
@@ -29656,7 +29659,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" ht="28.5">
       <c r="A49" s="4" t="s">
         <v>67</v>
       </c>
@@ -29702,10 +29705,10 @@
       </c>
       <c r="Q49">
         <f>SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100</f>
-        <v>30.000000000000004</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="28.5">
       <c r="A50" s="4" t="s">
         <v>81</v>
       </c>
@@ -29754,7 +29757,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" ht="28.5">
       <c r="A51" s="4" t="s">
         <v>70</v>
       </c>
@@ -29799,7 +29802,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" ht="28.5">
       <c r="A52" s="4" t="s">
         <v>72</v>
       </c>
@@ -29844,7 +29847,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" ht="28.5">
       <c r="A53" s="4" t="s">
         <v>74</v>
       </c>
@@ -29893,7 +29896,7 @@
         <v>30.000000000000004</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" ht="28.5">
       <c r="A54" s="4" t="s">
         <v>77</v>
       </c>
@@ -29942,7 +29945,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" ht="28.5">
       <c r="A55" s="4" t="s">
         <v>79</v>
       </c>
@@ -31997,11 +32000,11 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="19.53125" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:6">
@@ -33137,7 +33140,7 @@
       </c>
       <c r="C50">
         <f>SUMIF(Table1[Module Code],Sheet2!A50,Table1[Total Hours])</f>
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="D50">
         <f>INDEX(Table14[Total],MATCH(Sheet2!A50,Table14[Module Code],0))</f>
@@ -33145,11 +33148,11 @@
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
-        <v>34.5</v>
+        <v>35</v>
       </c>
       <c r="F50">
         <f t="shared" si="1"/>
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="51" spans="1:6">

--- a/AssessmentSchedule_2425.xlsx
+++ b/AssessmentSchedule_2425.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cf-my.sharepoint.com/personal/northce_cardiff_ac_uk/Documents/Documents/Cardiff/DUGS/Assessments/Schedule Modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2123" documentId="8_{F6E35C1D-54A9-4F6E-BB8B-E8E1539C4BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{868C87DD-15C7-4415-A66B-9579C8864427}"/>
+  <xr:revisionPtr revIDLastSave="2180" documentId="8_{F6E35C1D-54A9-4F6E-BB8B-E8E1539C4BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{239008D7-3BD6-46EE-A49D-E5A4BBC966F0}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="26116" windowHeight="15675" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Assessments" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="33" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2372" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="268">
   <si>
     <t>Module Code</t>
   </si>
@@ -704,19 +704,10 @@
     <t>Project</t>
   </si>
   <si>
-    <t>Supervisor comment</t>
-  </si>
-  <si>
-    <t>Reflective Statement</t>
-  </si>
-  <si>
     <t>CA Weight</t>
   </si>
   <si>
     <t>Proposal</t>
-  </si>
-  <si>
-    <t>Lab Diaries</t>
   </si>
   <si>
     <t>Data Analysis</t>
@@ -728,9 +719,6 @@
     <t>CA</t>
   </si>
   <si>
-    <t>Workshops</t>
-  </si>
-  <si>
     <t>Weekly sessions (prep)</t>
   </si>
   <si>
@@ -738,9 +726,6 @@
   </si>
   <si>
     <t>Video</t>
-  </si>
-  <si>
-    <t>Weekly workshops</t>
   </si>
   <si>
     <t>Weekly tasks</t>
@@ -752,28 +737,13 @@
     <t>Portfolio</t>
   </si>
   <si>
-    <t>3min Presentation</t>
-  </si>
-  <si>
-    <t>Group Presentation</t>
-  </si>
-  <si>
-    <t>Written work</t>
-  </si>
-  <si>
     <t>Business case</t>
-  </si>
-  <si>
-    <t>Weekly quizzez</t>
   </si>
   <si>
     <t>Reports</t>
   </si>
   <si>
     <t>Gregynog</t>
-  </si>
-  <si>
-    <t>Weekly Quizzes</t>
   </si>
   <si>
     <t>Mid-term test</t>
@@ -783,9 +753,6 @@
   </si>
   <si>
     <t>Factsheet</t>
-  </si>
-  <si>
-    <t>Collaborative exam</t>
   </si>
   <si>
     <t>Contact Time</t>
@@ -852,6 +819,33 @@
   </si>
   <si>
     <t>Exam Weight (%)</t>
+  </si>
+  <si>
+    <t>Quiz</t>
+  </si>
+  <si>
+    <t>Reflection</t>
+  </si>
+  <si>
+    <t>Lab Diary</t>
+  </si>
+  <si>
+    <t>Problem set</t>
+  </si>
+  <si>
+    <t>Collab. Exam</t>
+  </si>
+  <si>
+    <t>Group Pres</t>
+  </si>
+  <si>
+    <t>Article</t>
+  </si>
+  <si>
+    <t>Supervisor</t>
+  </si>
+  <si>
+    <t>Poster Pres</t>
   </si>
 </sst>
 </file>
@@ -8640,7 +8634,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F344565-A902-475D-ACD8-7DA2FB255CBD}" name="PivotTable1" cacheId="33" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F344565-A902-475D-ACD8-7DA2FB255CBD}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:B70" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="34">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -9551,24 +9545,24 @@
   <dimension ref="A1:AJ144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U102" sqref="U102"/>
+      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.86328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.86328125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10" style="10" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" style="10" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.7109375" style="10" customWidth="1"/>
-    <col min="11" max="19" width="16.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="17.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.73046875" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.73046875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="10.73046875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.73046875" style="10" customWidth="1"/>
+    <col min="11" max="19" width="16.265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="17.265625" style="14" bestFit="1" customWidth="1"/>
     <col min="23" max="34" width="9" style="16"/>
   </cols>
   <sheetData>
@@ -9583,7 +9577,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>155</v>
@@ -9592,7 +9586,7 @@
         <v>215</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>83</v>
@@ -9679,7 +9673,7 @@
         <v>192</v>
       </c>
       <c r="AJ1" s="17" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:36">
@@ -9701,10 +9695,10 @@
         <v>20</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H2" s="11">
         <v>1</v>
@@ -9779,7 +9773,7 @@
         <v>217</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H3" s="11">
         <v>4</v>
@@ -9845,10 +9839,10 @@
         <v>20</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H4" s="11">
         <v>3</v>
@@ -9914,10 +9908,10 @@
         <v>20</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H5" s="11">
         <v>1</v>
@@ -9997,10 +9991,10 @@
         <v>10</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H6" s="11">
         <v>2</v>
@@ -10070,10 +10064,10 @@
         <v>10</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H7" s="11">
         <v>3</v>
@@ -10137,10 +10131,10 @@
         <v>10</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H8" s="11">
         <v>3</v>
@@ -10204,38 +10198,37 @@
         <v>20</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>224</v>
+        <v>261</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H9" s="11">
         <v>2</v>
       </c>
       <c r="I9" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>8.8888888888888893</v>
+        <v>7.1999999999999984</v>
       </c>
       <c r="J9" s="11">
         <v>6</v>
       </c>
       <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
+      <c r="L9" s="18">
+        <v>0.09</v>
+      </c>
       <c r="M9" s="18"/>
       <c r="N9" s="19"/>
       <c r="O9" s="18">
-        <f>(2/3)/6</f>
-        <v>0.1111111111111111</v>
+        <v>0.09</v>
       </c>
       <c r="P9" s="18"/>
       <c r="Q9" s="18">
-        <f>(2/3)/6</f>
-        <v>0.1111111111111111</v>
+        <v>0.09</v>
       </c>
       <c r="R9" s="19"/>
       <c r="S9" s="18">
-        <f>(2/3)/6</f>
-        <v>0.1111111111111111</v>
+        <v>0.09</v>
       </c>
       <c r="T9" s="18"/>
       <c r="U9" s="18"/>
@@ -10243,18 +10236,15 @@
       <c r="W9" s="21"/>
       <c r="X9" s="21"/>
       <c r="Y9" s="20">
-        <f>(2/3)/6</f>
-        <v>0.1111111111111111</v>
+        <v>0.09</v>
       </c>
       <c r="Z9" s="21"/>
       <c r="AA9" s="20">
-        <f>(2/3)/6</f>
-        <v>0.1111111111111111</v>
+        <v>0.09</v>
       </c>
       <c r="AB9" s="21"/>
       <c r="AC9" s="20">
-        <f>(2/3)/6</f>
-        <v>0.1111111111111111</v>
+        <v>0.09</v>
       </c>
       <c r="AD9" s="21"/>
       <c r="AE9" s="20"/>
@@ -10263,11 +10253,11 @@
       <c r="AH9" s="20"/>
       <c r="AI9" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.66666666666666674</v>
+        <v>0.62999999999999989</v>
       </c>
       <c r="AJ9" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:36">
@@ -10289,17 +10279,17 @@
         <v>20</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H10" s="11">
         <v>3</v>
       </c>
       <c r="I10" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>13.333333333333332</v>
+        <v>14.8</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="18"/>
@@ -10313,8 +10303,7 @@
       <c r="S10" s="18"/>
       <c r="T10" s="18"/>
       <c r="U10" s="18">
-        <f>1/6</f>
-        <v>0.16666666666666666</v>
+        <v>0.1</v>
       </c>
       <c r="V10" s="19"/>
       <c r="W10" s="20"/>
@@ -10328,17 +10317,16 @@
       <c r="AE10" s="20"/>
       <c r="AF10" s="20"/>
       <c r="AG10" s="20">
-        <f>1/6</f>
-        <v>0.16666666666666666</v>
+        <v>0.27</v>
       </c>
       <c r="AH10" s="20"/>
       <c r="AI10" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.33333333333333331</v>
+        <v>0.37</v>
       </c>
       <c r="AJ10" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>26.666666666666664</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -10360,10 +10348,10 @@
         <v>20</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H11" s="11">
         <v>4</v>
@@ -10429,10 +10417,10 @@
         <v>20</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H12" s="11">
         <v>2</v>
@@ -10498,10 +10486,10 @@
         <v>10</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H13" s="11">
         <v>1</v>
@@ -10585,10 +10573,10 @@
         <v>10</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H14" s="11">
         <v>3</v>
@@ -10656,10 +10644,10 @@
         <v>10</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H15" s="11">
         <v>1</v>
@@ -10733,10 +10721,10 @@
         <v>10</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H16" s="11">
         <v>4</v>
@@ -10802,10 +10790,10 @@
         <v>10</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H17" s="11">
         <v>2</v>
@@ -10876,7 +10864,7 @@
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H18" s="11">
         <v>6</v>
@@ -10940,10 +10928,10 @@
         <v>20</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H19" s="11">
         <v>1</v>
@@ -11028,7 +11016,7 @@
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H20" s="11">
         <v>3</v>
@@ -11095,9 +11083,11 @@
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F21" s="11"/>
+      <c r="F21" s="11" t="s">
+        <v>224</v>
+      </c>
       <c r="G21" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H21" s="11">
         <v>1</v>
@@ -11181,9 +11171,11 @@
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F22" s="11"/>
+      <c r="F22" s="11" t="s">
+        <v>267</v>
+      </c>
       <c r="G22" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H22" s="11">
         <v>3</v>
@@ -11249,10 +11241,10 @@
         <v>10</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>224</v>
+        <v>261</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H23" s="11">
         <v>2</v>
@@ -11325,10 +11317,10 @@
         <v>10</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H24" s="11">
         <v>1</v>
@@ -11394,10 +11386,10 @@
         <v>10</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H25" s="11">
         <v>3</v>
@@ -11463,10 +11455,10 @@
         <v>10</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H26" s="11">
         <v>1</v>
@@ -11551,7 +11543,7 @@
         <v>217</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H27" s="11">
         <v>3</v>
@@ -11619,10 +11611,10 @@
         <v>10</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H28" s="11">
         <v>1</v>
@@ -11707,7 +11699,7 @@
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H29" s="11">
         <v>3</v>
@@ -11775,10 +11767,10 @@
         <v>10</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H30" s="11">
         <v>1</v>
@@ -11867,10 +11859,10 @@
         <v>10</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H31" s="11">
         <v>2</v>
@@ -11940,10 +11932,10 @@
         <v>10</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H32" s="11">
         <v>3</v>
@@ -12009,10 +12001,10 @@
         <v>10</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>221</v>
+        <v>260</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H33" s="11">
         <v>9</v>
@@ -12078,10 +12070,10 @@
         <v>10</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>224</v>
+        <v>261</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H34" s="11">
         <v>1</v>
@@ -12155,10 +12147,10 @@
         <v>10</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H35" s="11">
         <v>5</v>
@@ -12222,10 +12214,10 @@
         <v>20</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>224</v>
+        <v>261</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H36" s="11">
         <v>2</v>
@@ -12313,10 +12305,10 @@
         <v>20</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H37" s="11">
         <v>1</v>
@@ -12382,10 +12374,10 @@
         <v>20</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>221</v>
+        <v>260</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H38" s="11">
         <v>11</v>
@@ -12451,10 +12443,10 @@
         <v>20</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H39" s="11">
         <v>4</v>
@@ -12520,10 +12512,10 @@
         <v>20</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>224</v>
+        <v>261</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H40" s="11">
         <v>2</v>
@@ -12595,10 +12587,10 @@
         <v>20</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H41" s="11">
         <v>2</v>
@@ -12662,10 +12654,10 @@
         <v>20</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H42" s="11">
         <v>3</v>
@@ -12734,7 +12726,7 @@
         <v>219</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H43" s="11">
         <v>6</v>
@@ -12798,10 +12790,10 @@
         <v>20</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H44" s="11">
         <v>1</v>
@@ -12886,7 +12878,7 @@
       </c>
       <c r="F45" s="12"/>
       <c r="G45" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H45" s="11">
         <v>3</v>
@@ -12954,10 +12946,10 @@
         <v>10</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H46" s="11">
         <v>1</v>
@@ -13025,10 +13017,10 @@
         <v>10</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H47" s="11">
         <v>1</v>
@@ -13096,10 +13088,10 @@
         <v>10</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H48" s="11">
         <v>1</v>
@@ -13184,7 +13176,7 @@
       </c>
       <c r="F49" s="12"/>
       <c r="G49" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H49" s="11">
         <v>4</v>
@@ -13249,7 +13241,7 @@
       </c>
       <c r="F50" s="12"/>
       <c r="G50" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H50" s="11">
         <v>4</v>
@@ -13313,10 +13305,10 @@
         <v>10</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="H51" s="11">
         <v>1</v>
@@ -13407,10 +13399,10 @@
         <v>10</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H52" s="11">
         <v>6</v>
@@ -13474,10 +13466,10 @@
         <v>10</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>221</v>
+        <v>260</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H53" s="11">
         <v>1</v>
@@ -13543,10 +13535,10 @@
         <v>10</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H54" s="11">
         <v>9</v>
@@ -13610,10 +13602,10 @@
         <v>10</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="H55" s="11">
         <v>1</v>
@@ -13704,10 +13696,10 @@
         <v>10</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H56" s="11">
         <v>6</v>
@@ -13771,10 +13763,10 @@
         <v>10</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>221</v>
+        <v>260</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H57" s="11">
         <v>1</v>
@@ -13840,10 +13832,10 @@
         <v>10</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H58" s="11">
         <v>1</v>
@@ -13907,10 +13899,10 @@
         <v>20</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H59" s="11">
         <v>1</v>
@@ -14001,10 +13993,10 @@
         <v>20</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H60" s="11">
         <v>4</v>
@@ -14068,10 +14060,10 @@
         <v>20</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H61" s="11">
         <v>4</v>
@@ -14137,10 +14129,10 @@
         <v>10</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H62" s="13">
         <v>1</v>
@@ -14224,10 +14216,10 @@
         <v>10</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H63" s="11">
         <v>1</v>
@@ -14312,10 +14304,10 @@
         <v>10</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H64" s="11">
         <v>4</v>
@@ -14383,10 +14375,10 @@
         <v>10</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H65" s="11">
         <v>4</v>
@@ -14450,10 +14442,10 @@
         <v>10</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H66" s="11">
         <v>6</v>
@@ -14517,10 +14509,10 @@
         <v>10</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H67" s="11">
         <v>2</v>
@@ -14584,10 +14576,10 @@
         <v>10</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H68" s="11">
         <v>1</v>
@@ -14657,10 +14649,10 @@
         <v>10</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H69" s="11">
         <v>1</v>
@@ -14726,10 +14718,10 @@
         <v>10</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H70" s="11">
         <v>5</v>
@@ -14795,10 +14787,10 @@
         <v>10</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H71" s="11">
         <v>1</v>
@@ -14879,7 +14871,7 @@
       </c>
       <c r="F72" s="11"/>
       <c r="G72" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H72" s="11">
         <v>4</v>
@@ -14947,10 +14939,10 @@
         <v>10</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H73" s="13">
         <v>1</v>
@@ -15034,10 +15026,10 @@
         <v>10</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H74" s="13">
         <v>4</v>
@@ -15101,10 +15093,10 @@
         <v>10</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H75" s="11">
         <v>1</v>
@@ -15188,10 +15180,10 @@
         <v>10</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H76" s="11">
         <v>2</v>
@@ -15257,10 +15249,10 @@
         <v>10</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H77" s="11">
         <v>4</v>
@@ -15326,10 +15318,10 @@
         <v>10</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H78" s="11">
         <v>2</v>
@@ -15395,10 +15387,10 @@
         <v>10</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H79" s="11">
         <v>11</v>
@@ -15445,7 +15437,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:36" ht="28.5">
+    <row r="80" spans="1:36">
       <c r="A80" s="8" t="s">
         <v>23</v>
       </c>
@@ -15464,10 +15456,10 @@
         <v>10</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H80" s="11">
         <v>4</v>
@@ -15533,10 +15525,10 @@
         <v>20</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H81" s="11">
         <v>1</v>
@@ -15620,10 +15612,10 @@
         <v>20</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H82" s="11">
         <v>3</v>
@@ -15691,10 +15683,10 @@
         <v>10</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H83" s="11">
         <v>6</v>
@@ -15758,10 +15750,10 @@
         <v>10</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H84" s="11">
         <v>4</v>
@@ -15825,10 +15817,10 @@
         <v>10</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H85" s="11">
         <v>2</v>
@@ -15894,10 +15886,10 @@
         <v>10</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H86" s="11">
         <v>6</v>
@@ -15963,10 +15955,10 @@
         <v>10</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H87" s="11">
         <v>2</v>
@@ -16032,10 +16024,10 @@
         <v>10</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H88" s="11">
         <v>1</v>
@@ -16132,10 +16124,10 @@
         <v>10</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H89" s="11">
         <v>3</v>
@@ -16201,10 +16193,10 @@
         <v>10</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="G90" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H90" s="11">
         <v>11</v>
@@ -16270,10 +16262,10 @@
         <v>10</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G91" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H91" s="11">
         <v>11</v>
@@ -16339,10 +16331,10 @@
         <v>10</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>221</v>
+        <v>260</v>
       </c>
       <c r="G92" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H92" s="11">
         <v>11</v>
@@ -16408,10 +16400,10 @@
         <v>10</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H93" s="11">
         <v>6</v>
@@ -16475,10 +16467,10 @@
         <v>10</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H94" s="11">
         <v>2</v>
@@ -16542,10 +16534,10 @@
         <v>10</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H95" s="11">
         <v>4</v>
@@ -16611,10 +16603,10 @@
         <v>30</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="H96" s="11">
         <v>1</v>
@@ -16727,10 +16719,10 @@
         <v>30</v>
       </c>
       <c r="F97" s="13" t="s">
-        <v>220</v>
+        <v>266</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H97" s="13">
         <v>1</v>
@@ -16798,10 +16790,10 @@
         <v>30</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G98" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H98" s="11">
         <v>11</v>
@@ -16869,10 +16861,10 @@
         <v>30</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G99" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H99" s="11">
         <v>6</v>
@@ -16938,10 +16930,10 @@
         <v>10</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G100" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H100" s="11">
         <v>4</v>
@@ -17005,10 +16997,10 @@
         <v>10</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H101" s="11">
         <v>4</v>
@@ -17072,10 +17064,10 @@
         <v>10</v>
       </c>
       <c r="F102" s="11" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="G102" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H102" s="11">
         <v>1</v>
@@ -17169,10 +17161,10 @@
         <v>10</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G103" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H103" s="11">
         <v>4</v>
@@ -17236,10 +17228,10 @@
         <v>10</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H104" s="11">
         <v>1</v>
@@ -17333,10 +17325,10 @@
         <v>10</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G105" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H105" s="11">
         <v>3</v>
@@ -17402,10 +17394,10 @@
         <v>10</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G106" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H106" s="11">
         <v>3</v>
@@ -17469,10 +17461,10 @@
         <v>10</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G107" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H107" s="11">
         <v>2</v>
@@ -17538,10 +17530,10 @@
         <v>10</v>
       </c>
       <c r="F108" s="11" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G108" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H108" s="11">
         <v>4</v>
@@ -17605,10 +17597,10 @@
         <v>10</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="G109" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H109" s="11">
         <v>1</v>
@@ -17692,10 +17684,10 @@
         <v>10</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G110" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H110" s="11">
         <v>6</v>
@@ -17759,10 +17751,10 @@
         <v>10</v>
       </c>
       <c r="F111" s="11" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="G111" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H111" s="11">
         <v>1</v>
@@ -17842,10 +17834,10 @@
         <v>10</v>
       </c>
       <c r="F112" s="11" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H112" s="11">
         <v>6</v>
@@ -17909,10 +17901,10 @@
         <v>10</v>
       </c>
       <c r="F113" s="11" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="G113" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H113" s="11">
         <v>1</v>
@@ -18001,7 +17993,7 @@
       </c>
       <c r="F114" s="11"/>
       <c r="G114" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H114" s="11">
         <v>4</v>
@@ -18066,7 +18058,7 @@
       </c>
       <c r="F115" s="11"/>
       <c r="G115" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H115" s="11">
         <v>4</v>
@@ -18132,10 +18124,10 @@
         <v>10</v>
       </c>
       <c r="F116" s="11" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="G116" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H116" s="11">
         <v>1</v>
@@ -18219,10 +18211,10 @@
         <v>10</v>
       </c>
       <c r="F117" s="11" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G117" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H117" s="11">
         <v>2</v>
@@ -18292,10 +18284,10 @@
         <v>10</v>
       </c>
       <c r="F118" s="12" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G118" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H118" s="11">
         <v>3</v>
@@ -18359,10 +18351,10 @@
         <v>10</v>
       </c>
       <c r="F119" s="12" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G119" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H119" s="11">
         <v>4</v>
@@ -18426,10 +18418,10 @@
         <v>10</v>
       </c>
       <c r="F120" s="11" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="G120" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H120" s="11">
         <v>1</v>
@@ -18513,10 +18505,10 @@
         <v>10</v>
       </c>
       <c r="F121" s="12" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G121" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H121" s="11">
         <v>3</v>
@@ -18580,10 +18572,10 @@
         <v>10</v>
       </c>
       <c r="F122" s="12" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G122" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H122" s="11">
         <v>2</v>
@@ -18649,10 +18641,10 @@
         <v>10</v>
       </c>
       <c r="F123" s="11" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="G123" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H123" s="11">
         <v>1</v>
@@ -18737,7 +18729,7 @@
       </c>
       <c r="F124" s="12"/>
       <c r="G124" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H124" s="11">
         <v>3</v>
@@ -18804,7 +18796,7 @@
       </c>
       <c r="F125" s="12"/>
       <c r="G125" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H125" s="11">
         <v>1</v>
@@ -18868,10 +18860,10 @@
         <v>10</v>
       </c>
       <c r="F126" s="11" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="G126" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H126" s="11">
         <v>1</v>
@@ -18956,7 +18948,7 @@
       </c>
       <c r="F127" s="12"/>
       <c r="G127" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H127" s="11">
         <v>4</v>
@@ -19024,10 +19016,10 @@
         <v>10</v>
       </c>
       <c r="F128" s="12" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G128" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H128" s="11">
         <v>3</v>
@@ -19096,7 +19088,7 @@
       </c>
       <c r="F129" s="12"/>
       <c r="G129" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H129" s="11">
         <v>3</v>
@@ -19164,10 +19156,10 @@
         <v>10</v>
       </c>
       <c r="F130" s="12" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G130" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H130" s="11">
         <v>3</v>
@@ -19238,10 +19230,10 @@
         <v>10</v>
       </c>
       <c r="F131" s="11" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H131" s="11">
         <v>1</v>
@@ -19325,10 +19317,10 @@
         <v>60</v>
       </c>
       <c r="F132" s="11" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="G132" s="11" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="H132" s="11">
         <v>1</v>
@@ -19441,10 +19433,10 @@
         <v>60</v>
       </c>
       <c r="F133" s="11" t="s">
-        <v>220</v>
+        <v>266</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H133" s="11">
         <v>1</v>
@@ -19512,10 +19504,10 @@
         <v>60</v>
       </c>
       <c r="F134" s="11" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="G134" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H134" s="11">
         <v>1</v>
@@ -19581,10 +19573,10 @@
         <v>60</v>
       </c>
       <c r="F135" s="11" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="G135" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H135" s="11">
         <v>11</v>
@@ -19653,7 +19645,7 @@
       </c>
       <c r="F136" s="11"/>
       <c r="G136" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H136" s="11">
         <v>2</v>
@@ -19718,7 +19710,7 @@
       </c>
       <c r="F137" s="11"/>
       <c r="G137" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H137" s="11">
         <v>4</v>
@@ -19783,7 +19775,7 @@
       </c>
       <c r="F138" s="11"/>
       <c r="G138" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H138" s="11">
         <v>3</v>
@@ -19848,7 +19840,7 @@
       </c>
       <c r="F139" s="11"/>
       <c r="G139" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H139" s="11">
         <v>6</v>
@@ -19913,7 +19905,7 @@
       </c>
       <c r="F140" s="11"/>
       <c r="G140" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H140" s="11">
         <v>6</v>
@@ -19978,7 +19970,7 @@
       </c>
       <c r="F141" s="11"/>
       <c r="G141" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H141" s="11">
         <v>3</v>
@@ -20043,7 +20035,7 @@
       </c>
       <c r="F142" s="11"/>
       <c r="G142" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H142" s="11">
         <v>7</v>
@@ -20108,7 +20100,7 @@
       </c>
       <c r="F143" s="11"/>
       <c r="G143" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H143" s="11">
         <v>11</v>
@@ -20173,7 +20165,7 @@
       </c>
       <c r="F144" s="11"/>
       <c r="G144" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H144" s="11">
         <v>6</v>
@@ -20239,17 +20231,17 @@
       <selection pane="bottomRight" activeCell="AF3" sqref="AF3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.86328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.86328125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10" style="10" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="10" customWidth="1"/>
-    <col min="8" max="16" width="16.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="17.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="31" width="8.7109375" style="16"/>
+    <col min="6" max="6" width="10.73046875" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.73046875" style="10" customWidth="1"/>
+    <col min="8" max="16" width="16.265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="17.265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="31" width="8.73046875" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -20260,7 +20252,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>155</v>
@@ -20347,7 +20339,7 @@
         <v>191</v>
       </c>
       <c r="AF1" s="17" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:32">
@@ -20411,37 +20403,37 @@
       </c>
       <c r="S2" s="32"/>
       <c r="T2" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="U2" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="V2" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="W2" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="X2" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Y2" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Z2" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AA2" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AB2" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AC2" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AD2" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AE2" s="33"/>
       <c r="AF2" s="37">
@@ -20457,7 +20449,7 @@
         <v>60</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D3" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -20509,37 +20501,37 @@
       </c>
       <c r="S3" s="32"/>
       <c r="T3" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="U3" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="V3" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="W3" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="X3" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Y3" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Z3" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AA3" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AB3" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AC3" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AD3" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AE3" s="33"/>
       <c r="AF3" s="37">
@@ -20555,7 +20547,7 @@
         <v>62</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D4" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -20607,37 +20599,37 @@
       </c>
       <c r="S4" s="32"/>
       <c r="T4" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="U4" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="V4" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="W4" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="X4" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Y4" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Z4" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AA4" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AB4" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AC4" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AD4" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AE4" s="33"/>
       <c r="AF4" s="37">
@@ -20653,7 +20645,7 @@
         <v>64</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="D5" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -20751,7 +20743,7 @@
         <v>84</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D6" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -20769,37 +20761,37 @@
         <v>4</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="J6" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="K6" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="L6" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="M6" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="N6" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="O6" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="P6" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Q6" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="R6" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="S6" s="32"/>
       <c r="T6" s="33">
@@ -20849,7 +20841,7 @@
         <v>85</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="D7" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -20867,37 +20859,37 @@
         <v>3</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="J7" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="K7" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="L7" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="M7" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="N7" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="P7" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Q7" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="R7" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="S7" s="32"/>
       <c r="T7" s="33">
@@ -20947,7 +20939,7 @@
         <v>87</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D8" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -20965,37 +20957,37 @@
         <v>2</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="J8" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="K8" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="L8" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="M8" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="N8" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="O8" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="P8" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Q8" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="R8" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="S8" s="32"/>
       <c r="T8" s="33">
@@ -21045,7 +21037,7 @@
         <v>88</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D9" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -21063,37 +21055,37 @@
         <v>2</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="J9" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="K9" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="L9" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="M9" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="N9" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="P9" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Q9" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="R9" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="S9" s="32"/>
       <c r="T9" s="33">
@@ -21143,7 +21135,7 @@
         <v>86</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D10" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -21161,37 +21153,37 @@
         <v>2</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="J10" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="K10" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="L10" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="M10" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="N10" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="O10" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="P10" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Q10" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="R10" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="S10" s="32"/>
       <c r="T10" s="33">
@@ -21235,13 +21227,13 @@
     </row>
     <row r="11" spans="1:32">
       <c r="A11" s="3" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="D11" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -21339,7 +21331,7 @@
         <v>40</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D12" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -21391,37 +21383,37 @@
       </c>
       <c r="S12" s="32"/>
       <c r="T12" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="U12" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="V12" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="W12" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="X12" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Y12" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Z12" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AA12" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AB12" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AC12" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AD12" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AE12" s="33"/>
       <c r="AF12" s="37">
@@ -21437,7 +21429,7 @@
         <v>41</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D13" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -21489,37 +21481,37 @@
       </c>
       <c r="S13" s="32"/>
       <c r="T13" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="U13" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="V13" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="W13" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="X13" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Y13" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Z13" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AA13" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AB13" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AC13" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AD13" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AE13" s="33"/>
       <c r="AF13" s="37">
@@ -21535,7 +21527,7 @@
         <v>52</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="D14" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -21587,37 +21579,37 @@
       </c>
       <c r="S14" s="32"/>
       <c r="T14" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="U14" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="V14" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="W14" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="X14" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Y14" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Z14" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AA14" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AB14" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AC14" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AD14" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AE14" s="33"/>
       <c r="AF14" s="37">
@@ -21633,7 +21625,7 @@
         <v>43</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="D15" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -21683,37 +21675,37 @@
       <c r="R15" s="31"/>
       <c r="S15" s="32"/>
       <c r="T15" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="U15" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="V15" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="W15" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="X15" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Y15" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Z15" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AA15" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AB15" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AC15" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AD15" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AE15" s="33"/>
       <c r="AF15" s="37">
@@ -21729,7 +21721,7 @@
         <v>45</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D16" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -21781,37 +21773,37 @@
       </c>
       <c r="S16" s="32"/>
       <c r="T16" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="U16" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="V16" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="W16" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="X16" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Y16" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Z16" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AA16" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AB16" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AC16" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AD16" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AE16" s="33"/>
       <c r="AF16" s="37">
@@ -21827,7 +21819,7 @@
         <v>46</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="D17" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -21879,37 +21871,37 @@
       </c>
       <c r="S17" s="32"/>
       <c r="T17" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="U17" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="V17" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="W17" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="X17" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Y17" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Z17" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AA17" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AB17" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AC17" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AD17" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AE17" s="33"/>
       <c r="AF17" s="37">
@@ -21925,7 +21917,7 @@
         <v>47</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D18" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -21977,37 +21969,37 @@
       </c>
       <c r="S18" s="32"/>
       <c r="T18" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="U18" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="V18" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="W18" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="X18" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Y18" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Z18" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AA18" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AB18" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AC18" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AD18" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AE18" s="33"/>
       <c r="AF18" s="37">
@@ -22023,7 +22015,7 @@
         <v>54</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="D19" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -22121,7 +22113,7 @@
         <v>56</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="D20" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -22219,7 +22211,7 @@
         <v>93</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D21" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -22237,37 +22229,37 @@
         <v>4</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I21" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="J21" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="K21" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="L21" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="M21" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="N21" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="P21" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Q21" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="R21" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="S21" s="32"/>
       <c r="T21" s="33">
@@ -22317,7 +22309,7 @@
         <v>94</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="D22" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -22335,37 +22327,37 @@
         <v>2</v>
       </c>
       <c r="H22" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I22" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="J22" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="K22" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="L22" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="M22" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="N22" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="O22" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="P22" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Q22" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="R22" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="S22" s="32"/>
       <c r="T22" s="33">
@@ -22415,7 +22407,7 @@
         <v>96</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D23" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -22433,37 +22425,37 @@
         <v>3</v>
       </c>
       <c r="H23" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I23" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="J23" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="K23" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="L23" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="M23" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="N23" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="O23" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="P23" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Q23" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="R23" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="S23" s="32"/>
       <c r="T23" s="33">
@@ -22513,7 +22505,7 @@
         <v>98</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D24" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -22531,37 +22523,37 @@
         <v>2</v>
       </c>
       <c r="H24" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I24" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="J24" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="K24" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="L24" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="M24" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="N24" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="O24" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="P24" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Q24" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="R24" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="S24" s="32"/>
       <c r="T24" s="33">
@@ -22611,7 +22603,7 @@
         <v>100</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="D25" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -22629,37 +22621,37 @@
         <v>3</v>
       </c>
       <c r="H25" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I25" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="J25" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="K25" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="L25" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="M25" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="N25" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="O25" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="P25" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Q25" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="R25" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="S25" s="32"/>
       <c r="T25" s="33">
@@ -22707,7 +22699,7 @@
         <v>95</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="D26" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -22725,37 +22717,37 @@
         <v>3</v>
       </c>
       <c r="H26" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I26" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="J26" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="K26" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="L26" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="M26" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="N26" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="O26" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="P26" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Q26" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="R26" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="S26" s="32"/>
       <c r="T26" s="33">
@@ -22803,7 +22795,7 @@
         <v>2</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D27" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -22855,37 +22847,37 @@
       </c>
       <c r="S27" s="31"/>
       <c r="T27" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="U27" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="V27" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="W27" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="X27" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Y27" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Z27" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AA27" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AB27" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AC27" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AD27" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AE27" s="33"/>
       <c r="AF27" s="37">
@@ -22901,7 +22893,7 @@
         <v>8</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D28" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -22953,37 +22945,37 @@
       </c>
       <c r="S28" s="35"/>
       <c r="T28" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="U28" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="V28" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="W28" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="X28" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Y28" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Z28" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AA28" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AB28" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AC28" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AD28" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AE28" s="33"/>
       <c r="AF28" s="37">
@@ -22999,7 +22991,7 @@
         <v>10</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="D29" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -23051,37 +23043,37 @@
       </c>
       <c r="S29" s="35"/>
       <c r="T29" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="U29" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="V29" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="W29" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="X29" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Y29" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Z29" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AA29" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AB29" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AC29" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AD29" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AE29" s="33"/>
       <c r="AF29" s="37">
@@ -23097,7 +23089,7 @@
         <v>12</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D30" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -23149,37 +23141,37 @@
       </c>
       <c r="S30" s="35"/>
       <c r="T30" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="U30" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="V30" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="W30" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="X30" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Y30" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Z30" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AA30" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AB30" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AC30" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AD30" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AE30" s="33"/>
       <c r="AF30" s="37">
@@ -23195,7 +23187,7 @@
         <v>14</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D31" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -23247,37 +23239,37 @@
       </c>
       <c r="S31" s="35"/>
       <c r="T31" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="U31" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="V31" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="W31" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="X31" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Y31" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Z31" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AA31" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AB31" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AC31" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AD31" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AE31" s="33"/>
       <c r="AF31" s="37">
@@ -23293,7 +23285,7 @@
         <v>15</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="D32" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -23345,37 +23337,37 @@
       </c>
       <c r="S32" s="35"/>
       <c r="T32" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="U32" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="V32" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="W32" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="X32" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Y32" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Z32" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AA32" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AB32" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AC32" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AD32" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AE32" s="33"/>
       <c r="AF32" s="37">
@@ -23391,7 +23383,7 @@
         <v>160</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D33" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -23443,37 +23435,37 @@
       </c>
       <c r="S33" s="35"/>
       <c r="T33" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="U33" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="V33" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="W33" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="X33" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Y33" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Z33" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AA33" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AB33" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AC33" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AD33" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AE33" s="33"/>
       <c r="AF33" s="37">
@@ -23489,7 +23481,7 @@
         <v>19</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D34" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -23541,37 +23533,37 @@
       </c>
       <c r="S34" s="35"/>
       <c r="T34" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="U34" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="V34" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="W34" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="X34" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Y34" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Z34" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AA34" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AB34" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AC34" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AD34" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AE34" s="33"/>
       <c r="AF34" s="37">
@@ -23587,7 +23579,7 @@
         <v>21</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D35" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -23639,37 +23631,37 @@
       </c>
       <c r="S35" s="35"/>
       <c r="T35" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="U35" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="V35" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="W35" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="X35" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Y35" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Z35" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AA35" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AB35" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AC35" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AD35" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AE35" s="33"/>
       <c r="AF35" s="37">
@@ -23685,7 +23677,7 @@
         <v>22</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="D36" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -23737,37 +23729,37 @@
       </c>
       <c r="S36" s="32"/>
       <c r="T36" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="U36" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="V36" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="W36" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="X36" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Y36" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Z36" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AA36" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AB36" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AC36" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AD36" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AE36" s="33"/>
       <c r="AF36" s="37">
@@ -23775,7 +23767,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:32" ht="28.5">
+    <row r="37" spans="1:32">
       <c r="A37" s="8" t="s">
         <v>23</v>
       </c>
@@ -23783,7 +23775,7 @@
         <v>24</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D37" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -23835,37 +23827,37 @@
       </c>
       <c r="S37" s="35"/>
       <c r="T37" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="U37" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="V37" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="W37" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="X37" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Y37" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Z37" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AA37" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AB37" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AC37" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AD37" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AE37" s="33"/>
       <c r="AF37" s="37">
@@ -23881,7 +23873,7 @@
         <v>104</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D38" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -23899,37 +23891,37 @@
         <v>4</v>
       </c>
       <c r="H38" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I38" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="J38" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="K38" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="L38" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="M38" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="N38" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="O38" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="P38" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Q38" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="R38" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="S38" s="32"/>
       <c r="T38" s="33">
@@ -23979,7 +23971,7 @@
         <v>105</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D39" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -23997,37 +23989,37 @@
         <v>2</v>
       </c>
       <c r="H39" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I39" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="J39" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="K39" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="L39" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="M39" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="N39" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="O39" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="P39" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Q39" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="R39" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="S39" s="32"/>
       <c r="T39" s="33">
@@ -24077,7 +24069,7 @@
         <v>106</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D40" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -24095,37 +24087,37 @@
         <v>2</v>
       </c>
       <c r="H40" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I40" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="J40" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="K40" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="L40" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="M40" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="N40" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="O40" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="P40" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Q40" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="R40" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="S40" s="32"/>
       <c r="T40" s="33">
@@ -24175,7 +24167,7 @@
         <v>107</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D41" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -24193,37 +24185,37 @@
         <v>2</v>
       </c>
       <c r="H41" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I41" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="J41" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="K41" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="L41" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="M41" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="N41" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="O41" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="P41" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Q41" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="R41" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="S41" s="32"/>
       <c r="T41" s="33">
@@ -24273,7 +24265,7 @@
         <v>108</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D42" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -24291,37 +24283,37 @@
         <v>2</v>
       </c>
       <c r="H42" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I42" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="J42" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="K42" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="L42" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="M42" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="N42" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="O42" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="P42" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Q42" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="R42" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="S42" s="32"/>
       <c r="T42" s="33">
@@ -24371,7 +24363,7 @@
         <v>109</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="D43" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -24389,37 +24381,37 @@
         <v>2</v>
       </c>
       <c r="H43" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I43" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="J43" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="K43" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="L43" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="M43" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="N43" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="O43" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="P43" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Q43" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="R43" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="S43" s="32"/>
       <c r="T43" s="33">
@@ -24469,7 +24461,7 @@
         <v>111</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D44" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -24487,37 +24479,37 @@
         <v>2</v>
       </c>
       <c r="H44" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I44" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="J44" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="K44" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="L44" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="M44" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="N44" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="O44" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="P44" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Q44" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="R44" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="S44" s="32"/>
       <c r="T44" s="33">
@@ -24567,7 +24559,7 @@
         <v>113</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D45" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -24585,37 +24577,37 @@
         <v>2</v>
       </c>
       <c r="H45" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I45" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="J45" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="K45" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="L45" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="M45" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="N45" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="O45" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="P45" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Q45" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="R45" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="S45" s="32"/>
       <c r="T45" s="33">
@@ -24665,7 +24657,7 @@
         <v>115</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D46" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -24683,37 +24675,37 @@
         <v>2</v>
       </c>
       <c r="H46" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I46" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="J46" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="K46" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="L46" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="M46" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="N46" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="O46" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="P46" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Q46" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="R46" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="S46" s="32"/>
       <c r="T46" s="33">
@@ -24763,7 +24755,7 @@
         <v>25</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="D47" s="30">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -24864,7 +24856,7 @@
         <v>14</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D48" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -24916,37 +24908,37 @@
       </c>
       <c r="S48" s="32"/>
       <c r="T48" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="U48" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="V48" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="W48" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="X48" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Y48" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Z48" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AA48" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AB48" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AC48" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AD48" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AE48" s="33"/>
       <c r="AF48" s="37">
@@ -24962,7 +24954,7 @@
         <v>68</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D49" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -25014,37 +25006,37 @@
       </c>
       <c r="S49" s="32"/>
       <c r="T49" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="U49" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="V49" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="W49" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="X49" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Y49" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Z49" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AA49" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AB49" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AC49" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AD49" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AE49" s="33"/>
       <c r="AF49" s="37">
@@ -25060,7 +25052,7 @@
         <v>69</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D50" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -25112,37 +25104,37 @@
       </c>
       <c r="S50" s="32"/>
       <c r="T50" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="U50" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="V50" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="W50" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="X50" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Y50" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Z50" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AA50" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AB50" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AC50" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AD50" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AE50" s="33"/>
       <c r="AF50" s="37">
@@ -25158,7 +25150,7 @@
         <v>71</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D51" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -25210,37 +25202,37 @@
       </c>
       <c r="S51" s="32"/>
       <c r="T51" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="U51" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="V51" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="W51" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="X51" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Y51" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Z51" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AA51" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AB51" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AC51" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AD51" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AE51" s="33"/>
       <c r="AF51" s="37">
@@ -25256,7 +25248,7 @@
         <v>73</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D52" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -25308,37 +25300,37 @@
       </c>
       <c r="S52" s="32"/>
       <c r="T52" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="U52" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="V52" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="W52" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="X52" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Y52" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Z52" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AA52" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AB52" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AC52" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AD52" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AE52" s="33"/>
       <c r="AF52" s="37">
@@ -25354,7 +25346,7 @@
         <v>75</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D53" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -25406,37 +25398,37 @@
       </c>
       <c r="S53" s="32"/>
       <c r="T53" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="U53" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="V53" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="W53" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="X53" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Y53" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Z53" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AA53" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AB53" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AC53" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AD53" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AE53" s="33"/>
       <c r="AF53" s="37">
@@ -25452,7 +25444,7 @@
         <v>78</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="D54" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -25504,37 +25496,37 @@
       </c>
       <c r="S54" s="32"/>
       <c r="T54" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="U54" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="V54" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="W54" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="X54" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Y54" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Z54" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AA54" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AB54" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AC54" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AD54" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AE54" s="33"/>
       <c r="AF54" s="37">
@@ -25550,7 +25542,7 @@
         <v>80</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D55" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -25602,37 +25594,37 @@
       </c>
       <c r="S55" s="32"/>
       <c r="T55" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="U55" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="V55" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="W55" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="X55" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Y55" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Z55" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AA55" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AB55" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AC55" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AD55" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AE55" s="33"/>
       <c r="AF55" s="37">
@@ -25648,7 +25640,7 @@
         <v>120</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D56" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -25666,37 +25658,37 @@
         <v>2</v>
       </c>
       <c r="H56" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I56" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="J56" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="K56" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="L56" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="M56" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="N56" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="O56" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="P56" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Q56" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="R56" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="S56" s="32"/>
       <c r="T56" s="33">
@@ -25746,7 +25738,7 @@
         <v>121</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D57" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -25764,37 +25756,37 @@
         <v>2</v>
       </c>
       <c r="H57" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I57" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="J57" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="K57" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="L57" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="M57" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="N57" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="O57" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="P57" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Q57" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="R57" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="S57" s="32"/>
       <c r="T57" s="33">
@@ -25844,7 +25836,7 @@
         <v>122</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="D58" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -25862,37 +25854,37 @@
         <v>2</v>
       </c>
       <c r="H58" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I58" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="J58" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="K58" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="L58" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="M58" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="N58" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="O58" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="P58" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Q58" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="R58" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="S58" s="32"/>
       <c r="T58" s="33">
@@ -25942,7 +25934,7 @@
         <v>123</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D59" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -25960,37 +25952,37 @@
         <v>2</v>
       </c>
       <c r="H59" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I59" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="J59" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="K59" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="L59" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="M59" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="N59" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="O59" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="P59" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Q59" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="R59" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="S59" s="32"/>
       <c r="T59" s="33">
@@ -26040,7 +26032,7 @@
         <v>125</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="D60" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -26058,37 +26050,37 @@
         <v>3</v>
       </c>
       <c r="H60" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I60" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="J60" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="K60" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="L60" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="M60" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="N60" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="O60" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="P60" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Q60" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="R60" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="S60" s="32"/>
       <c r="T60" s="33">
@@ -26138,7 +26130,7 @@
         <v>127</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D61" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -26156,37 +26148,37 @@
         <v>2</v>
       </c>
       <c r="H61" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I61" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="J61" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="K61" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="L61" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="M61" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="N61" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="O61" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="P61" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Q61" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="R61" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="S61" s="32"/>
       <c r="T61" s="33">
@@ -26236,7 +26228,7 @@
         <v>175</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D62" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -26254,37 +26246,37 @@
         <v>2</v>
       </c>
       <c r="H62" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I62" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="J62" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="K62" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="L62" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="M62" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="N62" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="O62" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="P62" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Q62" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="R62" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="S62" s="32"/>
       <c r="T62" s="33">
@@ -26334,7 +26326,7 @@
         <v>128</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D63" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -26352,37 +26344,37 @@
         <v>3</v>
       </c>
       <c r="H63" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I63" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="J63" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="K63" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="L63" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="M63" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="N63" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="O63" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="P63" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Q63" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="R63" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="S63" s="32"/>
       <c r="T63" s="33">
@@ -26432,7 +26424,7 @@
         <v>129</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D64" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -26450,37 +26442,37 @@
         <v>2</v>
       </c>
       <c r="H64" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I64" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="J64" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="K64" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="L64" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="M64" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="N64" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="O64" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="P64" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Q64" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="R64" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="S64" s="32"/>
       <c r="T64" s="33">
@@ -26530,7 +26522,7 @@
         <v>131</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D65" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -26548,37 +26540,37 @@
         <v>2</v>
       </c>
       <c r="H65" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I65" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="J65" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="K65" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="L65" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="M65" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="N65" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="O65" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="P65" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Q65" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="R65" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="S65" s="32"/>
       <c r="T65" s="33">
@@ -26628,7 +26620,7 @@
         <v>25</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="D66" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -26780,37 +26772,37 @@
       </c>
       <c r="S67" s="32"/>
       <c r="T67" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="U67" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="V67" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="W67" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="X67" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Y67" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Z67" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AA67" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AB67" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AC67" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AD67" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AE67" s="33"/>
       <c r="AF67" s="37">
@@ -26844,37 +26836,37 @@
         <v>4</v>
       </c>
       <c r="H68" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I68" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="J68" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="K68" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="L68" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="M68" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="N68" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="O68" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="P68" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Q68" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="R68" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="S68" s="32"/>
       <c r="T68" s="33">
@@ -27394,14 +27386,14 @@
       <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.86328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.86328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.86328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.86328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.73046875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.265625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -27431,7 +27423,7 @@
         <v>153</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>154</v>
@@ -27446,10 +27438,10 @@
         <v>214</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>193</v>
@@ -27643,7 +27635,7 @@
       </c>
       <c r="Q5">
         <f>SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100</f>
-        <v>100</v>
+        <v>99.999999999999986</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -27879,10 +27871,10 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="3" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="28" t="s">
@@ -28555,7 +28547,7 @@
       </c>
       <c r="Q25">
         <f>SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100</f>
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -28600,7 +28592,7 @@
       </c>
       <c r="Q26">
         <f>SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100</f>
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -28650,7 +28642,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="28.5">
+    <row r="28" spans="1:17">
       <c r="A28" s="4" t="s">
         <v>7</v>
       </c>
@@ -28699,7 +28691,7 @@
         <v>30.000000000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="28.5">
+    <row r="29" spans="1:17">
       <c r="A29" s="4" t="s">
         <v>9</v>
       </c>
@@ -28748,7 +28740,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="28.5">
+    <row r="30" spans="1:17">
       <c r="A30" s="4" t="s">
         <v>11</v>
       </c>
@@ -28842,7 +28834,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="28.5">
+    <row r="32" spans="1:17">
       <c r="A32" s="4" t="s">
         <v>16</v>
       </c>
@@ -28891,7 +28883,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="28.5">
+    <row r="33" spans="1:17">
       <c r="A33" s="4" t="s">
         <v>17</v>
       </c>
@@ -28940,7 +28932,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="28.5">
+    <row r="34" spans="1:17">
       <c r="A34" s="4" t="s">
         <v>18</v>
       </c>
@@ -28987,7 +28979,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="28.5">
+    <row r="35" spans="1:17">
       <c r="A35" s="4" t="s">
         <v>20</v>
       </c>
@@ -29038,7 +29030,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="28.5">
+    <row r="36" spans="1:17">
       <c r="A36" s="4" t="s">
         <v>26</v>
       </c>
@@ -29089,7 +29081,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="28.5">
+    <row r="37" spans="1:17">
       <c r="A37" s="8" t="s">
         <v>23</v>
       </c>
@@ -29610,7 +29602,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="28.5">
+    <row r="48" spans="1:17">
       <c r="A48" s="4" t="s">
         <v>66</v>
       </c>
@@ -29659,7 +29651,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="28.5">
+    <row r="49" spans="1:17">
       <c r="A49" s="4" t="s">
         <v>67</v>
       </c>
@@ -29708,7 +29700,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="28.5">
+    <row r="50" spans="1:17">
       <c r="A50" s="4" t="s">
         <v>81</v>
       </c>
@@ -29757,7 +29749,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="28.5">
+    <row r="51" spans="1:17">
       <c r="A51" s="4" t="s">
         <v>70</v>
       </c>
@@ -29802,7 +29794,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="28.5">
+    <row r="52" spans="1:17">
       <c r="A52" s="4" t="s">
         <v>72</v>
       </c>
@@ -29847,7 +29839,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="28.5">
+    <row r="53" spans="1:17">
       <c r="A53" s="4" t="s">
         <v>74</v>
       </c>
@@ -29896,7 +29888,7 @@
         <v>30.000000000000004</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="28.5">
+    <row r="54" spans="1:17">
       <c r="A54" s="4" t="s">
         <v>77</v>
       </c>
@@ -29945,7 +29937,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="28.5">
+    <row r="55" spans="1:17">
       <c r="A55" s="4" t="s">
         <v>79</v>
       </c>
@@ -32000,11 +31992,11 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:6">
@@ -32015,16 +32007,16 @@
         <v>155</v>
       </c>
       <c r="C3" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="D3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E3" t="s">
         <v>248</v>
       </c>
-      <c r="E3" t="s">
-        <v>259</v>
-      </c>
       <c r="F3" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -32108,7 +32100,7 @@
       </c>
       <c r="C7">
         <f>SUMIF(Table1[Module Code],Sheet2!A7,Table1[Total Hours])</f>
-        <v>62.666666666666664</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="D7">
         <f>INDEX(Table14[Total],MATCH(Sheet2!A7,Table14[Module Code],0))</f>
@@ -32116,11 +32108,11 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>146.66666666666666</v>
+        <v>155.6</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>7.333333333333333</v>
+        <v>7.7799999999999994</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -33613,7 +33605,7 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C70">
         <f>SUMIF(Table1[Module Code],Sheet2!A70,Table1[Total Hours])</f>

--- a/AssessmentSchedule_2425.xlsx
+++ b/AssessmentSchedule_2425.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cf-my.sharepoint.com/personal/northce_cardiff_ac_uk/Documents/Documents/Cardiff/DUGS/Assessments/Schedule Modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2180" documentId="8_{F6E35C1D-54A9-4F6E-BB8B-E8E1539C4BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{239008D7-3BD6-46EE-A49D-E5A4BBC966F0}"/>
+  <xr:revisionPtr revIDLastSave="2184" documentId="8_{F6E35C1D-54A9-4F6E-BB8B-E8E1539C4BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66721BFC-2AF1-4B04-96CA-78D631A9CA39}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="26116" windowHeight="15675" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="26116" windowHeight="15675" activeTab="2" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Assessments" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="11" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -8634,7 +8634,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F344565-A902-475D-ACD8-7DA2FB255CBD}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F344565-A902-475D-ACD8-7DA2FB255CBD}" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:B70" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="34">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -9544,8 +9544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66039B40-29AD-4D93-B125-EAF72A7B3996}">
   <dimension ref="A1:AJ144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
@@ -27382,8 +27382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D548CE7-BEAC-43FA-847F-FDE82E3A5926}">
   <dimension ref="A1:Q132"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -31936,8 +31936,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H2:N98">
+    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="O">
+      <formula>NOT(ISERROR(SEARCH("O",H2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="8" operator="containsText" text="C">
+      <formula>NOT(ISERROR(SEARCH("C",H2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G2:G98">
-    <cfRule type="colorScale" priority="10">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="num" val="10"/>
         <cfvo type="percentile" val="50"/>
@@ -31946,14 +31954,6 @@
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
       </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:N98">
-    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="O">
-      <formula>NOT(ISERROR(SEARCH("O",H2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="8" operator="containsText" text="C">
-      <formula>NOT(ISERROR(SEARCH("C",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
